--- a/EditorTools/Assets/ReunionMovement/ExcelTool/Editor/Resources/ExcelTools/AudioConfig.xlsx
+++ b/EditorTools/Assets/ReunionMovement/ExcelTool/Editor/Resources/ExcelTools/AudioConfig.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>索引</t>
   </si>
@@ -82,25 +82,7 @@
     <t>Deus Ex Tempus</t>
   </si>
   <si>
-    <t>Audio/BattleBGMs/</t>
-  </si>
-  <si>
-    <t>Boss_battle_#2_metal_opening</t>
-  </si>
-  <si>
-    <t>Audio/SoundEffects/</t>
-  </si>
-  <si>
-    <t>TurboBlow1</t>
-  </si>
-  <si>
-    <t>警报蜂鸣器</t>
-  </si>
-  <si>
-    <t>桩考</t>
-  </si>
-  <si>
-    <t>侧方停车</t>
+    <t>无</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1061,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1142,7 +1124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>100001</v>
       </c>
@@ -1155,76 +1137,37 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>110009</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>120012</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>120013</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>120014</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>120015</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
